--- a/seriation-exercises/ex-3_count-weight-analysis.xlsx
+++ b/seriation-exercises/ex-3_count-weight-analysis.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0112360\Documents\____\Sagalassos\__PhD\TA\Archaeology\_class_TMP-II_2023\exercises_excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30D7DC-D65D-46BF-9E28-3730EE03B9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE1B290-505C-45B5-B068-8B633671CD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Count Weight Analysis" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Count Weight Analysis'!$N$3:$Q$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,32 +38,30 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{F7F04D22-8195-4D74-98F1-51B20A2B4318}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>weight - count ratio multiplied with the constant</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>Data for the slope line:</t>
   </si>
@@ -86,23 +84,42 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Type-1</t>
+    <t>Data for the points at the plot:</t>
   </si>
   <si>
-    <t>Constant (maximum of count):</t>
+    <t>Ratio</t>
   </si>
   <si>
-    <t>The only cells you may modify are the ones colored in the same way as this text. The solution is automatically provided. Now, the interpretation should be done.</t>
+    <t>Average ratio:</t>
   </si>
   <si>
-    <t>Data for the points at the plot:</t>
+    <t>Numerical analysis:</t>
+  </si>
+  <si>
+    <t>Constant for plot:</t>
+  </si>
+  <si>
+    <t>The only cells you may modify are the ones colored in the same way as this text. The solution is automatically provided. Your task is to interpret the results.</t>
+  </si>
+  <si>
+    <t>Type-A</t>
+  </si>
+  <si>
+    <t>Difference (%)</t>
+  </si>
+  <si>
+    <t>Statistical residual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,15 +164,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -359,32 +375,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,9 +404,62 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +525,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Count for Type-1</a:t>
+              <a:t> Count for Type-A</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -778,7 +823,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,7 +838,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>654.1389473684211</c:v>
+                  <c:v>622.98947368421057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,15 +1591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>512081</xdr:colOff>
+      <xdr:colOff>191014</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>92061</xdr:rowOff>
+      <xdr:rowOff>68751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>524410</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>17594</xdr:rowOff>
+      <xdr:colOff>310365</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>188830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1582,286 +1627,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Battleship Curve"/>
-      <sheetName val="Weight vs Count"/>
-      <sheetName val="Robinson's IA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="G2" t="str">
-            <v>Data for the slope line:</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>Count</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>31</v>
-          </cell>
-          <cell r="E4">
-            <v>129</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>5</v>
-          </cell>
-          <cell r="E5">
-            <v>10</v>
-          </cell>
-          <cell r="G5">
-            <v>190</v>
-          </cell>
-          <cell r="H5">
-            <v>551.11906893464641</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>8</v>
-          </cell>
-          <cell r="E6">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>4</v>
-          </cell>
-          <cell r="E7">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>24</v>
-          </cell>
-          <cell r="E9">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>10</v>
-          </cell>
-          <cell r="E10">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>180</v>
-          </cell>
-          <cell r="E11">
-            <v>770</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>125</v>
-          </cell>
-          <cell r="E12">
-            <v>410</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>20</v>
-          </cell>
-          <cell r="E13">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>4</v>
-          </cell>
-          <cell r="E14">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>9</v>
-          </cell>
-          <cell r="E15">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-          <cell r="E16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>38</v>
-          </cell>
-          <cell r="E17">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>17</v>
-          </cell>
-          <cell r="E18">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-          <cell r="E19">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>25</v>
-          </cell>
-          <cell r="E20">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>40</v>
-          </cell>
-          <cell r="E21">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>20</v>
-          </cell>
-          <cell r="E22">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>11</v>
-          </cell>
-          <cell r="E23">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>120</v>
-          </cell>
-          <cell r="E24">
-            <v>380</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>35</v>
-          </cell>
-          <cell r="E25">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>7</v>
-          </cell>
-          <cell r="E26">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>2</v>
-          </cell>
-          <cell r="E27">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>36</v>
-          </cell>
-          <cell r="E28">
-            <v>154</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>25</v>
-          </cell>
-          <cell r="E29">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>45</v>
-          </cell>
-          <cell r="E30">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>0</v>
-          </cell>
-          <cell r="E31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>190</v>
-          </cell>
-          <cell r="E32">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>85</v>
-          </cell>
-          <cell r="E33">
-            <v>200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2126,11 +1891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94FCFF-601E-49DC-9465-E50C2A33FCEB}">
-  <dimension ref="B1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94FCFF-601E-49DC-9465-E50C2A33FCEB}">
+  <dimension ref="B1:U33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I7"/>
+      <selection activeCell="B1" sqref="B1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2138,423 +1903,939 @@
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
+    </row>
+    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="N2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+    </row>
+    <row r="3" spans="2:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4">
+        <v>129</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="11">
+        <f>IFERROR(E4/D4,"-")</f>
+        <v>4.161290322580645</v>
+      </c>
+      <c r="P4" s="22">
+        <f>E4-$I$7*D4</f>
+        <v>21.707368421052635</v>
+      </c>
+      <c r="Q4" s="21" cm="1">
+        <f t="array" ref="Q4">100*SIGN(P4)*ABS(P4)/MAX(ABS($P$4:$P$33))</f>
+        <v>14.765859945582132</v>
+      </c>
+      <c r="T4" s="20"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <f>I8*1</f>
+        <v>180</v>
+      </c>
+      <c r="H5" s="9">
+        <f>I8*I7</f>
+        <v>622.98947368421057</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" ref="O5:O33" si="0">IFERROR(E5/D5,"-")</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="22">
+        <f t="shared" ref="P5:P33" si="1">E5-$I$7*D5</f>
+        <v>-7.3052631578947356</v>
+      </c>
+      <c r="Q5" s="21" cm="1">
+        <f t="array" ref="Q5">100*SIGN(P5)*ABS(P5)/MAX(ABS($P$4:$P$33))</f>
+        <v>-4.9692109408563656</v>
+      </c>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" si="1"/>
+        <v>-7.688421052631579</v>
+      </c>
+      <c r="Q6" s="21" cm="1">
+        <f t="array" ref="Q6">100*SIGN(P6)*ABS(P6)/MAX(ABS($P$4:$P$33))</f>
+        <v>-5.2298439066303892</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="10">
+        <f>SUM($E$4:$E$33)/SUM($D$4:$D$33)</f>
+        <v>3.4610526315789474</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P7" s="22">
+        <f t="shared" si="1"/>
+        <v>-3.8442105263157895</v>
+      </c>
+      <c r="Q7" s="21" cm="1">
+        <f t="array" ref="Q7">100*SIGN(P7)*ABS(P7)/MAX(ABS($P$4:$P$33))</f>
+        <v>-2.6149219533151946</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="5">
+        <f>MAX($D$4:$D$33)</f>
+        <v>180</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="21" cm="1">
+        <f t="array" ref="Q8">100*SIGN(P8)*ABS(P8)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4">
+        <v>76</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="1"/>
+        <v>-7.0652631578947336</v>
+      </c>
+      <c r="Q9" s="21" cm="1">
+        <f t="array" ref="Q9">100*SIGN(P9)*ABS(P9)/MAX(ABS($P$4:$P$33))</f>
+        <v>-4.8059573249319767</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2">
+        <v>7</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="22">
+        <f t="shared" si="1"/>
+        <v>-19.610526315789471</v>
+      </c>
+      <c r="Q10" s="21" cm="1">
+        <f t="array" ref="Q10">100*SIGN(P10)*ABS(P10)/MAX(ABS($P$4:$P$33))</f>
+        <v>-13.339538880137479</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>180</v>
+      </c>
+      <c r="E11" s="4">
+        <v>770</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2777777777777777</v>
+      </c>
+      <c r="P11" s="22">
+        <f t="shared" si="1"/>
+        <v>147.01052631578943</v>
+      </c>
+      <c r="Q11" s="21" cm="1">
+        <f t="array" ref="Q11">100*SIGN(P11)*ABS(P11)/MAX(ABS($P$4:$P$33))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>125</v>
+      </c>
+      <c r="E12" s="4">
+        <v>410</v>
+      </c>
+      <c r="N12" s="2">
+        <v>9</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="0"/>
+        <v>3.28</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="1"/>
+        <v>-22.631578947368439</v>
+      </c>
+      <c r="Q12" s="21" cm="1">
+        <f t="array" ref="Q12">100*SIGN(P12)*ABS(P12)/MAX(ABS($P$4:$P$33))</f>
+        <v>-15.394529571817287</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4">
+        <v>55</v>
+      </c>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="1"/>
+        <v>-14.221052631578942</v>
+      </c>
+      <c r="Q13" s="21" cm="1">
+        <f t="array" ref="Q13">100*SIGN(P13)*ABS(P13)/MAX(ABS($P$4:$P$33))</f>
+        <v>-9.6734927681512222</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>31</v>
-      </c>
-      <c r="E4" s="12">
-        <v>129</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12">
-        <v>10</v>
-      </c>
-      <c r="G5" s="13">
-        <f>J7*1</f>
-        <v>189</v>
-      </c>
-      <c r="H5" s="17">
-        <f>J7*SUM($E$4:$E$33)/SUM($D$4:$D$33)</f>
-        <v>654.1389473684211</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="E14" s="4">
+        <v>11</v>
+      </c>
+      <c r="N14" s="2">
+        <v>11</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="1"/>
+        <v>-2.8442105263157895</v>
+      </c>
+      <c r="Q14" s="21" cm="1">
+        <f t="array" ref="Q14">100*SIGN(P14)*ABS(P14)/MAX(ABS($P$4:$P$33))</f>
+        <v>-1.9346985536302455</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>21</v>
+      </c>
+      <c r="N15" s="2">
+        <v>12</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="1"/>
+        <v>-10.149473684210527</v>
+      </c>
+      <c r="Q15" s="21" cm="1">
+        <f t="array" ref="Q15">100*SIGN(P15)*ABS(P15)/MAX(ABS($P$4:$P$33))</f>
+        <v>-6.9039094944866131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>13</v>
+      </c>
+      <c r="O16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21" cm="1">
+        <f t="array" ref="Q16">100*SIGN(P16)*ABS(P16)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4">
+        <v>77</v>
+      </c>
+      <c r="N17" s="2">
+        <v>14</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0263157894736841</v>
+      </c>
+      <c r="P17" s="22">
+        <f t="shared" si="1"/>
+        <v>-54.52000000000001</v>
+      </c>
+      <c r="Q17" s="21" cm="1">
+        <f t="array" ref="Q17">100*SIGN(P17)*ABS(P17)/MAX(ABS($P$4:$P$33))</f>
+        <v>-37.085779750823441</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4">
+        <v>40</v>
+      </c>
+      <c r="N18" s="2">
+        <v>15</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" si="1"/>
+        <v>-18.837894736842102</v>
+      </c>
+      <c r="Q18" s="21" cm="1">
+        <f t="array" ref="Q18">100*SIGN(P18)*ABS(P18)/MAX(ABS($P$4:$P$33))</f>
+        <v>-12.813976800801949</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="N19" s="2">
+        <v>16</v>
+      </c>
+      <c r="O19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P19" s="22">
+        <f>E19-$I$7*D19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="21" cm="1">
+        <f t="array" ref="Q19">100*SIGN(P19)*ABS(P19)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="N20" s="2">
+        <v>17</v>
+      </c>
+      <c r="O20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21" cm="1">
+        <f t="array" ref="Q20">100*SIGN(P20)*ABS(P20)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="N21" s="2">
+        <v>18</v>
+      </c>
+      <c r="O21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21" cm="1">
+        <f t="array" ref="Q21">100*SIGN(P21)*ABS(P21)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="N22" s="2">
+        <v>19</v>
+      </c>
+      <c r="O22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21" cm="1">
+        <f t="array" ref="Q22">100*SIGN(P22)*ABS(P22)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="13">
-        <f>1.05*MAX($D$4:$D$33)</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
-        <v>6</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="N23" s="2">
+        <v>20</v>
+      </c>
+      <c r="O23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21" cm="1">
+        <f t="array" ref="Q23">100*SIGN(P23)*ABS(P23)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="N24" s="2">
+        <v>21</v>
+      </c>
+      <c r="O24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P24" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="21" cm="1">
+        <f t="array" ref="Q24">100*SIGN(P24)*ABS(P24)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="N25" s="2">
+        <v>22</v>
+      </c>
+      <c r="O25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P25" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21" cm="1">
+        <f t="array" ref="Q25">100*SIGN(P25)*ABS(P25)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="N26" s="2">
+        <v>23</v>
+      </c>
+      <c r="O26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P26" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="21" cm="1">
+        <f t="array" ref="Q26">100*SIGN(P26)*ABS(P26)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
         <v>24</v>
       </c>
-      <c r="E9" s="12">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11">
-        <v>180</v>
-      </c>
-      <c r="E11" s="12">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10">
-        <v>9</v>
-      </c>
-      <c r="D12" s="11">
-        <v>125</v>
-      </c>
-      <c r="E12" s="12">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10">
-        <v>11</v>
-      </c>
-      <c r="D14" s="11">
-        <v>4</v>
-      </c>
-      <c r="E14" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
-        <v>12</v>
-      </c>
-      <c r="D15" s="11">
-        <v>9</v>
-      </c>
-      <c r="E15" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10">
-        <v>13</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10">
-        <v>14</v>
-      </c>
-      <c r="D17" s="11">
-        <v>38</v>
-      </c>
-      <c r="E17" s="12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10">
-        <v>15</v>
-      </c>
-      <c r="D18" s="11">
-        <v>17</v>
-      </c>
-      <c r="E18" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="N27" s="2">
+        <v>24</v>
+      </c>
+      <c r="O27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P27" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21" cm="1">
+        <f t="array" ref="Q27">100*SIGN(P27)*ABS(P27)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="N28" s="2">
+        <v>25</v>
+      </c>
+      <c r="O28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21" cm="1">
+        <f t="array" ref="Q28">100*SIGN(P28)*ABS(P28)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="N29" s="2">
+        <v>26</v>
+      </c>
+      <c r="O29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P29" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21" cm="1">
+        <f t="array" ref="Q29">100*SIGN(P29)*ABS(P29)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="N30" s="2">
+        <v>27</v>
+      </c>
+      <c r="O30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P30" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="21" cm="1">
+        <f t="array" ref="Q30">100*SIGN(P30)*ABS(P30)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="N31" s="2">
+        <v>28</v>
+      </c>
+      <c r="O31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21" cm="1">
+        <f t="array" ref="Q31">100*SIGN(P31)*ABS(P31)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="N32" s="2">
+        <v>29</v>
+      </c>
+      <c r="O32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P32" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="21" cm="1">
+        <f t="array" ref="Q32">100*SIGN(P32)*ABS(P32)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="N33" s="2">
+        <v>30</v>
+      </c>
+      <c r="O33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="21" cm="1">
+        <f t="array" ref="Q33">100*SIGN(P33)*ABS(P33)/MAX(ABS($P$4:$P$33))</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/seriation-exercises/ex-3_count-weight-analysis.xlsx
+++ b/seriation-exercises/ex-3_count-weight-analysis.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0112360\Documents\____\Sagalassos\__PhD\TA\Archaeology\_class_TMP-II_2023\exercises_excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE1B290-505C-45B5-B068-8B633671CD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AA6D4-2F8D-4733-B068-21CCCAF7F6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Count Weight Analysis" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Count Weight Analysis'!$N$3:$Q$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Count Weight Analysis'!$N$3:$S$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Data for the slope line:</t>
   </si>
@@ -99,27 +99,50 @@
     <t>Constant for plot:</t>
   </si>
   <si>
-    <t>The only cells you may modify are the ones colored in the same way as this text. The solution is automatically provided. Your task is to interpret the results.</t>
-  </si>
-  <si>
     <t>Type-A</t>
   </si>
   <si>
     <t>Difference (%)</t>
   </si>
   <si>
-    <t>Statistical residual</t>
+    <t>Difference from average ratio</t>
+  </si>
+  <si>
+    <t>Difference from expected weight</t>
+  </si>
+  <si>
+    <r>
+      <t>Modify only the cells that are highlighted in the same way as this cell. Do not cut cells, you may only copy-paste-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or type.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,28 +167,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,28 +417,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -434,23 +456,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -459,7 +466,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,25 +613,25 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>125</c:v>
@@ -607,7 +640,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9</c:v>
@@ -619,7 +652,52 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -661,25 +739,25 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>180</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>125</c:v>
@@ -688,7 +766,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
@@ -700,7 +778,52 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,34 +838,34 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>770</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>21</c:v>
@@ -754,7 +877,52 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,7 +991,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,7 +1006,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>622.98947368421057</c:v>
+                  <c:v>475.12591866731998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94FCFF-601E-49DC-9465-E50C2A33FCEB}">
-  <dimension ref="B1:U33"/>
+  <dimension ref="B1:W33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+      <selection activeCell="B1" sqref="B1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,936 +2071,1255 @@
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="33" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="49" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
+    </row>
+    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="N2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="2:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-    </row>
-    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="N2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="2:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="20">
         <v>31</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="21">
         <v>129</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="7">
         <f>IFERROR(E4/D4,"-")</f>
         <v>4.161290322580645</v>
       </c>
-      <c r="P4" s="22">
-        <f>E4-$I$7*D4</f>
-        <v>21.707368421052635</v>
-      </c>
-      <c r="Q4" s="21" cm="1">
+      <c r="P4" s="24">
+        <f>IFERROR((O4-$I$7)/$I$7,0)</f>
+        <v>0.43635947038509998</v>
+      </c>
+      <c r="Q4" s="25" cm="1">
         <f t="array" ref="Q4">100*SIGN(P4)*ABS(P4)/MAX(ABS($P$4:$P$33))</f>
-        <v>14.765859945582132</v>
-      </c>
-      <c r="T4" s="20"/>
+        <v>41.777745278288478</v>
+      </c>
+      <c r="R4" s="24">
+        <f>E4-($I$7*D4)</f>
+        <v>39.189612934835864</v>
+      </c>
+      <c r="S4" s="25" cm="1">
+        <f t="array" ref="S4">100*SIGN(R4)*ABS(R4)/MAX(ABS($R$4:$R$33))</f>
+        <v>17.032793867120954</v>
+      </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="D5" s="20">
+        <v>93</v>
+      </c>
+      <c r="E5" s="21">
+        <v>185</v>
+      </c>
+      <c r="G5" s="3">
         <f>I8*1</f>
-        <v>180</v>
-      </c>
-      <c r="H5" s="9">
+        <v>164</v>
+      </c>
+      <c r="H5" s="5">
         <f>I8*I7</f>
-        <v>622.98947368421057</v>
+        <v>475.12591866731998</v>
       </c>
       <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="7">
         <f t="shared" ref="O5:O33" si="0">IFERROR(E5/D5,"-")</f>
-        <v>2</v>
-      </c>
-      <c r="P5" s="22">
-        <f t="shared" ref="P5:P33" si="1">E5-$I$7*D5</f>
-        <v>-7.3052631578947356</v>
-      </c>
-      <c r="Q5" s="21" cm="1">
+        <v>1.989247311827957</v>
+      </c>
+      <c r="P5" s="24">
+        <f>IFERROR((O5-$I$7)/$I$7,0)</f>
+        <v>-0.31336821183141211</v>
+      </c>
+      <c r="Q5" s="25" cm="1">
         <f t="array" ref="Q5">100*SIGN(P5)*ABS(P5)/MAX(ABS($P$4:$P$33))</f>
-        <v>-4.9692109408563656</v>
-      </c>
-      <c r="U5" s="29"/>
+        <v>-30.00236781993426</v>
+      </c>
+      <c r="R5" s="24">
+        <f>E5-($I$7*D5)</f>
+        <v>-84.431161195492393</v>
+      </c>
+      <c r="S5" s="25" cm="1">
+        <f t="array" ref="S5">100*SIGN(R5)*ABS(R5)/MAX(ABS($R$4:$R$33))</f>
+        <v>-36.695911413969327</v>
+      </c>
+      <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20</v>
+      <c r="D6" s="20">
+        <v>164</v>
+      </c>
+      <c r="E6" s="21">
+        <v>410</v>
       </c>
       <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="7">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="P6" s="22">
-        <f t="shared" si="1"/>
-        <v>-7.688421052631579</v>
-      </c>
-      <c r="Q6" s="21" cm="1">
+      <c r="P6" s="24">
+        <f>IFERROR((O6-$I$7)/$I$7,0)</f>
+        <v>-0.13707086081515307</v>
+      </c>
+      <c r="Q6" s="25" cm="1">
         <f t="array" ref="Q6">100*SIGN(P6)*ABS(P6)/MAX(ABS($P$4:$P$33))</f>
-        <v>-5.2298439066303892</v>
+        <v>-13.123380829015547</v>
+      </c>
+      <c r="R6" s="24">
+        <f>E6-($I$7*D6)</f>
+        <v>-65.125918667319979</v>
+      </c>
+      <c r="S6" s="25" cm="1">
+        <f t="array" ref="S6">100*SIGN(R6)*ABS(R6)/MAX(ABS($R$4:$R$33))</f>
+        <v>-28.305366269165265</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="27" t="s">
+      <c r="D7" s="20">
+        <v>152</v>
+      </c>
+      <c r="E7" s="21">
+        <v>363</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="10">
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
         <f>SUM($E$4:$E$33)/SUM($D$4:$D$33)</f>
-        <v>3.4610526315789474</v>
+        <v>2.8971092601665851</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="7">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="P7" s="22">
-        <f t="shared" si="1"/>
-        <v>-3.8442105263157895</v>
-      </c>
-      <c r="Q7" s="21" cm="1">
+        <v>2.388157894736842</v>
+      </c>
+      <c r="P7" s="24">
+        <f>IFERROR((O7-$I$7)/$I$7,0)</f>
+        <v>-0.17567558546289624</v>
+      </c>
+      <c r="Q7" s="25" cm="1">
         <f t="array" ref="Q7">100*SIGN(P7)*ABS(P7)/MAX(ABS($P$4:$P$33))</f>
-        <v>-2.6149219533151946</v>
+        <v>-16.819458174256891</v>
+      </c>
+      <c r="R7" s="24">
+        <f>E7-($I$7*D7)</f>
+        <v>-77.360607545320931</v>
+      </c>
+      <c r="S7" s="25" cm="1">
+        <f t="array" ref="S7">100*SIGN(R7)*ABS(R7)/MAX(ABS($R$4:$R$33))</f>
+        <v>-33.622870528109033</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="20">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="21">
         <v>0</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="5">
+      <c r="H8" s="18"/>
+      <c r="I8" s="3">
         <f>MAX($D$4:$D$33)</f>
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="N8" s="2">
         <v>5</v>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="O8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="P8" s="22">
-        <f t="shared" si="1"/>
+      <c r="P8" s="24">
+        <f>IFERROR((O8-$I$7)/$I$7,0)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="21" cm="1">
+      <c r="Q8" s="25" cm="1">
         <f t="array" ref="Q8">100*SIGN(P8)*ABS(P8)/MAX(ABS($P$4:$P$33))</f>
         <v>0</v>
       </c>
+      <c r="R8" s="24">
+        <f>E8-($I$7*D8)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="25" cm="1">
+        <f t="array" ref="S8">100*SIGN(R8)*ABS(R8)/MAX(ABS($R$4:$R$33))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4">
-        <v>76</v>
+      <c r="D9" s="20">
+        <v>43</v>
+      </c>
+      <c r="E9" s="21">
+        <v>119</v>
       </c>
       <c r="N9" s="2">
         <v>6</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="7">
         <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="P9" s="22">
-        <f t="shared" si="1"/>
-        <v>-7.0652631578947336</v>
-      </c>
-      <c r="Q9" s="21" cm="1">
+        <v>2.7674418604651163</v>
+      </c>
+      <c r="P9" s="24">
+        <f>IFERROR((O9-$I$7)/$I$7,0)</f>
+        <v>-4.4757511041890373E-2</v>
+      </c>
+      <c r="Q9" s="25" cm="1">
         <f t="array" ref="Q9">100*SIGN(P9)*ABS(P9)/MAX(ABS($P$4:$P$33))</f>
-        <v>-4.8059573249319767</v>
+        <v>-4.285154837932283</v>
+      </c>
+      <c r="R9" s="24">
+        <f>E9-($I$7*D9)</f>
+        <v>-5.5756981871631552</v>
+      </c>
+      <c r="S9" s="25" cm="1">
+        <f t="array" ref="S9">100*SIGN(R9)*ABS(R9)/MAX(ABS($R$4:$R$33))</f>
+        <v>-2.4233390119250422</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
-        <v>15</v>
+      <c r="D10" s="20">
+        <v>125</v>
+      </c>
+      <c r="E10" s="21">
+        <v>188</v>
       </c>
       <c r="N10" s="2">
         <v>7</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="P10" s="22">
-        <f t="shared" si="1"/>
-        <v>-19.610526315789471</v>
-      </c>
-      <c r="Q10" s="21" cm="1">
+        <v>1.504</v>
+      </c>
+      <c r="P10" s="24">
+        <f>IFERROR((O10-$I$7)/$I$7,0)</f>
+        <v>-0.48086182986639608</v>
+      </c>
+      <c r="Q10" s="25" cm="1">
         <f t="array" ref="Q10">100*SIGN(P10)*ABS(P10)/MAX(ABS($P$4:$P$33))</f>
-        <v>-13.339538880137479</v>
+        <v>-46.038471502590674</v>
+      </c>
+      <c r="R10" s="24">
+        <f>E10-($I$7*D10)</f>
+        <v>-174.13865752082313</v>
+      </c>
+      <c r="S10" s="25" cm="1">
+        <f t="array" ref="S10">100*SIGN(R10)*ABS(R10)/MAX(ABS($R$4:$R$33))</f>
+        <v>-75.685051107325393</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
       </c>
-      <c r="D11" s="3">
-        <v>180</v>
-      </c>
-      <c r="E11" s="4">
-        <v>770</v>
+      <c r="D11" s="20">
+        <v>144</v>
+      </c>
+      <c r="E11" s="21">
+        <v>516</v>
       </c>
       <c r="N11" s="2">
         <v>8</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="7">
         <f t="shared" si="0"/>
-        <v>4.2777777777777777</v>
-      </c>
-      <c r="P11" s="22">
-        <f t="shared" si="1"/>
-        <v>147.01052631578943</v>
-      </c>
-      <c r="Q11" s="21" cm="1">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="P11" s="24">
+        <f>IFERROR((O11-$I$7)/$I$7,0)</f>
+        <v>0.23686509949828063</v>
+      </c>
+      <c r="Q11" s="25" cm="1">
         <f t="array" ref="Q11">100*SIGN(P11)*ABS(P11)/MAX(ABS($P$4:$P$33))</f>
-        <v>100</v>
+        <v>22.677838946459417</v>
+      </c>
+      <c r="R11" s="24">
+        <f>E11-($I$7*D11)</f>
+        <v>98.816266536011767</v>
+      </c>
+      <c r="S11" s="25" cm="1">
+        <f t="array" ref="S11">100*SIGN(R11)*ABS(R11)/MAX(ABS($R$4:$R$33))</f>
+        <v>42.948040885860316</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="20">
         <v>125</v>
       </c>
-      <c r="E12" s="4">
-        <v>410</v>
+      <c r="E12" s="21">
+        <v>471</v>
       </c>
       <c r="N12" s="2">
         <v>9</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="7">
         <f t="shared" si="0"/>
-        <v>3.28</v>
-      </c>
-      <c r="P12" s="22">
-        <f t="shared" si="1"/>
-        <v>-22.631578947368439</v>
-      </c>
-      <c r="Q12" s="21" cm="1">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="P12" s="24">
+        <f>IFERROR((O12-$I$7)/$I$7,0)</f>
+        <v>0.3006067985794012</v>
+      </c>
+      <c r="Q12" s="25" cm="1">
         <f t="array" ref="Q12">100*SIGN(P12)*ABS(P12)/MAX(ABS($P$4:$P$33))</f>
-        <v>-15.394529571817287</v>
+        <v>28.780569948186518</v>
+      </c>
+      <c r="R12" s="24">
+        <f>E12-($I$7*D12)</f>
+        <v>108.86134247917687</v>
+      </c>
+      <c r="S12" s="25" cm="1">
+        <f t="array" ref="S12">100*SIGN(R12)*ABS(R12)/MAX(ABS($R$4:$R$33))</f>
+        <v>47.313884156729131</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="20">
         <v>20</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="21">
         <v>55</v>
       </c>
       <c r="N13" s="2">
         <v>10</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="7">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="P13" s="22">
-        <f t="shared" si="1"/>
-        <v>-14.221052631578942</v>
-      </c>
-      <c r="Q13" s="21" cm="1">
+      <c r="P13" s="24">
+        <f>IFERROR((O13-$I$7)/$I$7,0)</f>
+        <v>-5.077794689666839E-2</v>
+      </c>
+      <c r="Q13" s="25" cm="1">
         <f t="array" ref="Q13">100*SIGN(P13)*ABS(P13)/MAX(ABS($P$4:$P$33))</f>
-        <v>-9.6734927681512222</v>
+        <v>-4.8615608808290194</v>
+      </c>
+      <c r="R13" s="24">
+        <f>E13-($I$7*D13)</f>
+        <v>-2.9421852033317037</v>
+      </c>
+      <c r="S13" s="25" cm="1">
+        <f t="array" ref="S13">100*SIGN(R13)*ABS(R13)/MAX(ABS($R$4:$R$33))</f>
+        <v>-1.2787478705281106</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>11</v>
       </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>11</v>
+      <c r="D14" s="20">
+        <v>66</v>
+      </c>
+      <c r="E14" s="21">
+        <v>182</v>
       </c>
       <c r="N14" s="2">
         <v>11</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="7">
         <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
-      <c r="P14" s="22">
-        <f t="shared" si="1"/>
-        <v>-2.8442105263157895</v>
-      </c>
-      <c r="Q14" s="21" cm="1">
+        <v>2.7575757575757578</v>
+      </c>
+      <c r="P14" s="24">
+        <f>IFERROR((O14-$I$7)/$I$7,0)</f>
+        <v>-4.8163010111259688E-2</v>
+      </c>
+      <c r="Q14" s="25" cm="1">
         <f t="array" ref="Q14">100*SIGN(P14)*ABS(P14)/MAX(ABS($P$4:$P$33))</f>
-        <v>-1.9346985536302455</v>
+        <v>-4.6112027005809351</v>
+      </c>
+      <c r="R14" s="24">
+        <f>E14-($I$7*D14)</f>
+        <v>-9.2092111709946209</v>
+      </c>
+      <c r="S14" s="25" cm="1">
+        <f t="array" ref="S14">100*SIGN(R14)*ABS(R14)/MAX(ABS($R$4:$R$33))</f>
+        <v>-4.0025553662691697</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>12</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="20">
         <v>9</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="21">
         <v>21</v>
       </c>
       <c r="N15" s="2">
         <v>12</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="7">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="P15" s="22">
-        <f t="shared" si="1"/>
-        <v>-10.149473684210527</v>
-      </c>
-      <c r="Q15" s="21" cm="1">
+      <c r="P15" s="24">
+        <f>IFERROR((O15-$I$7)/$I$7,0)</f>
+        <v>-0.19459947009414283</v>
+      </c>
+      <c r="Q15" s="25" cm="1">
         <f t="array" ref="Q15">100*SIGN(P15)*ABS(P15)/MAX(ABS($P$4:$P$33))</f>
-        <v>-6.9039094944866131</v>
+        <v>-18.631260794473228</v>
+      </c>
+      <c r="R15" s="24">
+        <f>E15-($I$7*D15)</f>
+        <v>-5.0739833414992646</v>
+      </c>
+      <c r="S15" s="25" cm="1">
+        <f t="array" ref="S15">100*SIGN(R15)*ABS(R15)/MAX(ABS($R$4:$R$33))</f>
+        <v>-2.2052810902896076</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>13</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="20">
         <v>0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="21">
         <v>0</v>
       </c>
       <c r="N16" s="2">
         <v>13</v>
       </c>
-      <c r="O16" s="11" t="str">
+      <c r="O16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="P16" s="22">
-        <f t="shared" si="1"/>
+      <c r="P16" s="24">
+        <f>IFERROR((O16-$I$7)/$I$7,0)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="21" cm="1">
+      <c r="Q16" s="25" cm="1">
         <f t="array" ref="Q16">100*SIGN(P16)*ABS(P16)/MAX(ABS($P$4:$P$33))</f>
         <v>0</v>
       </c>
+      <c r="R16" s="24">
+        <f>E16-($I$7*D16)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="25" cm="1">
+        <f t="array" ref="S16">100*SIGN(R16)*ABS(R16)/MAX(ABS($R$4:$R$33))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>14</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="20">
         <v>38</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="21">
         <v>77</v>
       </c>
       <c r="N17" s="2">
         <v>14</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="7">
         <f t="shared" si="0"/>
         <v>2.0263157894736841</v>
       </c>
-      <c r="P17" s="22">
-        <f t="shared" si="1"/>
-        <v>-54.52000000000001</v>
-      </c>
-      <c r="Q17" s="21" cm="1">
+      <c r="P17" s="24">
+        <f>IFERROR((O17-$I$7)/$I$7,0)</f>
+        <v>-0.30057322402912412</v>
+      </c>
+      <c r="Q17" s="25" cm="1">
         <f t="array" ref="Q17">100*SIGN(P17)*ABS(P17)/MAX(ABS($P$4:$P$33))</f>
-        <v>-37.085779750823441</v>
+        <v>-28.777355467684764</v>
+      </c>
+      <c r="R17" s="24">
+        <f>E17-($I$7*D17)</f>
+        <v>-33.090151886330233</v>
+      </c>
+      <c r="S17" s="25" cm="1">
+        <f t="array" ref="S17">100*SIGN(R17)*ABS(R17)/MAX(ABS($R$4:$R$33))</f>
+        <v>-14.381814310051109</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
       </c>
-      <c r="D18" s="3">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4">
-        <v>40</v>
+      <c r="D18" s="20">
+        <v>64</v>
+      </c>
+      <c r="E18" s="21">
+        <v>129</v>
       </c>
       <c r="N18" s="2">
         <v>15</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="7">
         <f t="shared" si="0"/>
-        <v>2.3529411764705883</v>
-      </c>
-      <c r="P18" s="22">
-        <f t="shared" si="1"/>
-        <v>-18.837894736842102</v>
-      </c>
-      <c r="Q18" s="21" cm="1">
+        <v>2.015625</v>
+      </c>
+      <c r="P18" s="24">
+        <f>IFERROR((O18-$I$7)/$I$7,0)</f>
+        <v>-0.30426338153221716</v>
+      </c>
+      <c r="Q18" s="25" cm="1">
         <f t="array" ref="Q18">100*SIGN(P18)*ABS(P18)/MAX(ABS($P$4:$P$33))</f>
-        <v>-12.813976800801949</v>
+        <v>-29.130656978626948</v>
+      </c>
+      <c r="R18" s="24">
+        <f>E18-($I$7*D18)</f>
+        <v>-56.414992650661446</v>
+      </c>
+      <c r="S18" s="25" cm="1">
+        <f t="array" ref="S18">100*SIGN(R18)*ABS(R18)/MAX(ABS($R$4:$R$33))</f>
+        <v>-24.519378194207839</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>16</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="20">
+        <v>39</v>
+      </c>
+      <c r="E19" s="21">
+        <v>231</v>
+      </c>
       <c r="N19" s="2">
         <v>16</v>
       </c>
-      <c r="O19" s="11" t="str">
+      <c r="O19" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P19" s="22">
-        <f>E19-$I$7*D19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="21" cm="1">
+        <v>5.9230769230769234</v>
+      </c>
+      <c r="P19" s="24">
+        <f>IFERROR((O19-$I$7)/$I$7,0)</f>
+        <v>1.0444782682225604</v>
+      </c>
+      <c r="Q19" s="25" cm="1">
         <f t="array" ref="Q19">100*SIGN(P19)*ABS(P19)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="R19" s="24">
+        <f>E19-($I$7*D19)</f>
+        <v>118.01273885350318</v>
+      </c>
+      <c r="S19" s="25" cm="1">
+        <f t="array" ref="S19">100*SIGN(R19)*ABS(R19)/MAX(ABS($R$4:$R$33))</f>
+        <v>51.291311754684834</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <v>17</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="20">
+        <v>48</v>
+      </c>
+      <c r="E20" s="21">
+        <v>81</v>
+      </c>
       <c r="N20" s="2">
         <v>17</v>
       </c>
-      <c r="O20" s="11" t="str">
+      <c r="O20" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P20" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="21" cm="1">
+        <v>1.6875</v>
+      </c>
+      <c r="P20" s="24">
+        <f>IFERROR((O20-$I$7)/$I$7,0)</f>
+        <v>-0.4175228310502283</v>
+      </c>
+      <c r="Q20" s="25" cm="1">
         <f t="array" ref="Q20">100*SIGN(P20)*ABS(P20)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>-39.974295660621763</v>
+      </c>
+      <c r="R20" s="24">
+        <f>E20-($I$7*D20)</f>
+        <v>-58.061244487996078</v>
+      </c>
+      <c r="S20" s="25" cm="1">
+        <f t="array" ref="S20">100*SIGN(R20)*ABS(R20)/MAX(ABS($R$4:$R$33))</f>
+        <v>-25.234880749574106</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>18</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="20">
+        <v>10</v>
+      </c>
+      <c r="E21" s="21">
+        <v>58</v>
+      </c>
       <c r="N21" s="2">
         <v>18</v>
       </c>
-      <c r="O21" s="11" t="str">
+      <c r="O21" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P21" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21" cm="1">
+        <v>5.8</v>
+      </c>
+      <c r="P21" s="24">
+        <f>IFERROR((O21-$I$7)/$I$7,0)</f>
+        <v>1.0019956029088448</v>
+      </c>
+      <c r="Q21" s="25" cm="1">
         <f t="array" ref="Q21">100*SIGN(P21)*ABS(P21)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>95.932642487046621</v>
+      </c>
+      <c r="R21" s="24">
+        <f>E21-($I$7*D21)</f>
+        <v>29.028907398334148</v>
+      </c>
+      <c r="S21" s="25" cm="1">
+        <f t="array" ref="S21">100*SIGN(R21)*ABS(R21)/MAX(ABS($R$4:$R$33))</f>
+        <v>12.616695059625213</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <v>19</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="20">
+        <v>82</v>
+      </c>
+      <c r="E22" s="21">
+        <v>283</v>
+      </c>
       <c r="N22" s="2">
         <v>19</v>
       </c>
-      <c r="O22" s="11" t="str">
+      <c r="O22" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P22" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="21" cm="1">
+        <v>3.4512195121951219</v>
+      </c>
+      <c r="P22" s="24">
+        <f>IFERROR((O22-$I$7)/$I$7,0)</f>
+        <v>0.19126315311859354</v>
+      </c>
+      <c r="Q22" s="25" cm="1">
         <f t="array" ref="Q22">100*SIGN(P22)*ABS(P22)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>18.311836534816123</v>
+      </c>
+      <c r="R22" s="24">
+        <f>E22-($I$7*D22)</f>
+        <v>45.43704066634001</v>
+      </c>
+      <c r="S22" s="25" cm="1">
+        <f t="array" ref="S22">100*SIGN(R22)*ABS(R22)/MAX(ABS($R$4:$R$33))</f>
+        <v>19.748083475298117</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
         <v>20</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="20">
+        <v>65</v>
+      </c>
+      <c r="E23" s="21">
+        <v>245</v>
+      </c>
       <c r="N23" s="2">
         <v>20</v>
       </c>
-      <c r="O23" s="11" t="str">
+      <c r="O23" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P23" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="21" cm="1">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="P23" s="24">
+        <f>IFERROR((O23-$I$7)/$I$7,0)</f>
+        <v>0.3010316252325384</v>
+      </c>
+      <c r="Q23" s="25" cm="1">
         <f t="array" ref="Q23">100*SIGN(P23)*ABS(P23)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>28.821243523316056</v>
+      </c>
+      <c r="R23" s="24">
+        <f>E23-($I$7*D23)</f>
+        <v>56.687898089171966</v>
+      </c>
+      <c r="S23" s="25" cm="1">
+        <f t="array" ref="S23">100*SIGN(R23)*ABS(R23)/MAX(ABS($R$4:$R$33))</f>
+        <v>24.637989778534919</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2">
         <v>21</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="20">
+        <v>90</v>
+      </c>
+      <c r="E24" s="21">
+        <v>213</v>
+      </c>
       <c r="N24" s="2">
         <v>21</v>
       </c>
-      <c r="O24" s="11" t="str">
+      <c r="O24" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P24" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="21" cm="1">
+        <v>2.3666666666666667</v>
+      </c>
+      <c r="P24" s="24">
+        <f>IFERROR((O24-$I$7)/$I$7,0)</f>
+        <v>-0.1830937482383449</v>
+      </c>
+      <c r="Q24" s="25" cm="1">
         <f t="array" ref="Q24">100*SIGN(P24)*ABS(P24)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>-17.529684801381695</v>
+      </c>
+      <c r="R24" s="24">
+        <f>E24-($I$7*D24)</f>
+        <v>-47.739833414992631</v>
+      </c>
+      <c r="S24" s="25" cm="1">
+        <f t="array" ref="S24">100*SIGN(R24)*ABS(R24)/MAX(ABS($R$4:$R$33))</f>
+        <v>-20.748935264054506</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2">
         <v>22</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="20">
+        <v>127</v>
+      </c>
+      <c r="E25" s="21">
+        <v>282</v>
+      </c>
       <c r="N25" s="2">
         <v>22</v>
       </c>
-      <c r="O25" s="11" t="str">
+      <c r="O25" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P25" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21" cm="1">
+        <v>2.2204724409448819</v>
+      </c>
+      <c r="P25" s="24">
+        <f>IFERROR((O25-$I$7)/$I$7,0)</f>
+        <v>-0.23355585118070288</v>
+      </c>
+      <c r="Q25" s="25" cm="1">
         <f t="array" ref="Q25">100*SIGN(P25)*ABS(P25)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>-22.361006282893396</v>
+      </c>
+      <c r="R25" s="24">
+        <f>E25-($I$7*D25)</f>
+        <v>-85.932876041156305</v>
+      </c>
+      <c r="S25" s="25" cm="1">
+        <f t="array" ref="S25">100*SIGN(R25)*ABS(R25)/MAX(ABS($R$4:$R$33))</f>
+        <v>-37.348594548551965</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
         <v>23</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="20">
+        <v>28</v>
+      </c>
+      <c r="E26" s="21">
+        <v>53</v>
+      </c>
       <c r="N26" s="2">
         <v>23</v>
       </c>
-      <c r="O26" s="11" t="str">
+      <c r="O26" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P26" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="21" cm="1">
+        <v>1.8928571428571428</v>
+      </c>
+      <c r="P26" s="24">
+        <f>IFERROR((O26-$I$7)/$I$7,0)</f>
+        <v>-0.34663936604575879</v>
+      </c>
+      <c r="Q26" s="25" cm="1">
         <f t="array" ref="Q26">100*SIGN(P26)*ABS(P26)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>-33.187800703182837</v>
+      </c>
+      <c r="R26" s="24">
+        <f>E26-($I$7*D26)</f>
+        <v>-28.119059284664388</v>
+      </c>
+      <c r="S26" s="25" cm="1">
+        <f t="array" ref="S26">100*SIGN(R26)*ABS(R26)/MAX(ABS($R$4:$R$33))</f>
+        <v>-12.221252129471896</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>24</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="20">
+        <v>57</v>
+      </c>
+      <c r="E27" s="21">
+        <v>142</v>
+      </c>
       <c r="N27" s="2">
         <v>24</v>
       </c>
-      <c r="O27" s="11" t="str">
+      <c r="O27" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P27" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="21" cm="1">
+        <v>2.4912280701754388</v>
+      </c>
+      <c r="P27" s="24">
+        <f>IFERROR((O27-$I$7)/$I$7,0)</f>
+        <v>-0.14009868235615247</v>
+      </c>
+      <c r="Q27" s="25" cm="1">
         <f t="array" ref="Q27">100*SIGN(P27)*ABS(P27)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>-13.413269248250156</v>
+      </c>
+      <c r="R27" s="24">
+        <f>E27-($I$7*D27)</f>
+        <v>-23.135227829495363</v>
+      </c>
+      <c r="S27" s="25" cm="1">
+        <f t="array" ref="S27">100*SIGN(R27)*ABS(R27)/MAX(ABS($R$4:$R$33))</f>
+        <v>-10.055153321976157</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
         <v>25</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="20">
+        <v>65</v>
+      </c>
+      <c r="E28" s="21">
+        <v>175</v>
+      </c>
       <c r="N28" s="2">
         <v>25</v>
       </c>
-      <c r="O28" s="11" t="str">
+      <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="21" cm="1">
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="P28" s="24">
+        <f>IFERROR((O28-$I$7)/$I$7,0)</f>
+        <v>-7.0691696262472473E-2</v>
+      </c>
+      <c r="Q28" s="25" cm="1">
         <f t="array" ref="Q28">100*SIGN(P28)*ABS(P28)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>-6.7681347150259032</v>
+      </c>
+      <c r="R28" s="24">
+        <f>E28-($I$7*D28)</f>
+        <v>-13.312101910828034</v>
+      </c>
+      <c r="S28" s="25" cm="1">
+        <f t="array" ref="S28">100*SIGN(R28)*ABS(R28)/MAX(ABS($R$4:$R$33))</f>
+        <v>-5.785775127768316</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <v>26</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="20">
+        <v>98</v>
+      </c>
+      <c r="E29" s="21">
+        <v>514</v>
+      </c>
       <c r="N29" s="2">
         <v>26</v>
       </c>
-      <c r="O29" s="11" t="str">
+      <c r="O29" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P29" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="21" cm="1">
+        <v>5.2448979591836737</v>
+      </c>
+      <c r="P29" s="24">
+        <f>IFERROR((O29-$I$7)/$I$7,0)</f>
+        <v>0.8103901124122912</v>
+      </c>
+      <c r="Q29" s="25" cm="1">
         <f t="array" ref="Q29">100*SIGN(P29)*ABS(P29)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>77.588030030665124</v>
+      </c>
+      <c r="R29" s="24">
+        <f>E29-($I$7*D29)</f>
+        <v>230.08329250367467</v>
+      </c>
+      <c r="S29" s="25" cm="1">
+        <f t="array" ref="S29">100*SIGN(R29)*ABS(R29)/MAX(ABS($R$4:$R$33))</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
         <v>27</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="20">
+        <v>110</v>
+      </c>
+      <c r="E30" s="21">
+        <v>331</v>
+      </c>
       <c r="N30" s="2">
         <v>27</v>
       </c>
-      <c r="O30" s="11" t="str">
+      <c r="O30" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P30" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="21" cm="1">
+        <v>3.0090909090909093</v>
+      </c>
+      <c r="P30" s="24">
+        <f>IFERROR((O30-$I$7)/$I$7,0)</f>
+        <v>3.8652891164306716E-2</v>
+      </c>
+      <c r="Q30" s="25" cm="1">
         <f t="array" ref="Q30">100*SIGN(P30)*ABS(P30)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>3.7006888836552077</v>
+      </c>
+      <c r="R30" s="24">
+        <f>E30-($I$7*D30)</f>
+        <v>12.317981381675622</v>
+      </c>
+      <c r="S30" s="25" cm="1">
+        <f t="array" ref="S30">100*SIGN(R30)*ABS(R30)/MAX(ABS($R$4:$R$33))</f>
+        <v>5.3537052810902779</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
         <v>28</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="20">
+        <v>18</v>
+      </c>
+      <c r="E31" s="21">
+        <v>84</v>
+      </c>
       <c r="N31" s="2">
         <v>28</v>
       </c>
-      <c r="O31" s="11" t="str">
+      <c r="O31" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P31" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="21" cm="1">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="P31" s="24">
+        <f>IFERROR((O31-$I$7)/$I$7,0)</f>
+        <v>0.6108010598117144</v>
+      </c>
+      <c r="Q31" s="25" cm="1">
         <f t="array" ref="Q31">100*SIGN(P31)*ABS(P31)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>58.479058721934386</v>
+      </c>
+      <c r="R31" s="24">
+        <f>E31-($I$7*D31)</f>
+        <v>31.852033317001471</v>
+      </c>
+      <c r="S31" s="25" cm="1">
+        <f t="array" ref="S31">100*SIGN(R31)*ABS(R31)/MAX(ABS($R$4:$R$33))</f>
+        <v>13.843696763202725</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
         <v>29</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="20">
+        <v>81</v>
+      </c>
+      <c r="E32" s="21">
+        <v>175</v>
+      </c>
       <c r="N32" s="2">
         <v>29</v>
       </c>
-      <c r="O32" s="11" t="str">
+      <c r="O32" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P32" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="21" cm="1">
+        <v>2.1604938271604937</v>
+      </c>
+      <c r="P32" s="24">
+        <f>IFERROR((O32-$I$7)/$I$7,0)</f>
+        <v>-0.25425876860568791</v>
+      </c>
+      <c r="Q32" s="25" cm="1">
         <f t="array" ref="Q32">100*SIGN(P32)*ABS(P32)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>-24.343136314207136</v>
+      </c>
+      <c r="R32" s="24">
+        <f>E32-($I$7*D32)</f>
+        <v>-59.665850073493402</v>
+      </c>
+      <c r="S32" s="25" cm="1">
+        <f t="array" ref="S32">100*SIGN(R32)*ABS(R32)/MAX(ABS($R$4:$R$33))</f>
+        <v>-25.932282793867127</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="6" t="s">
-        <v>13</v>
+    <row r="33" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C33" s="2">
         <v>30</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="22">
+        <v>49</v>
+      </c>
+      <c r="E33" s="23">
+        <v>201</v>
+      </c>
       <c r="N33" s="2">
         <v>30</v>
       </c>
-      <c r="O33" s="11" t="str">
+      <c r="O33" s="7">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P33" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="21" cm="1">
+        <v>4.1020408163265305</v>
+      </c>
+      <c r="P33" s="24">
+        <f>IFERROR((O33-$I$7)/$I$7,0)</f>
+        <v>0.41590822021350388</v>
+      </c>
+      <c r="Q33" s="25" cm="1">
         <f t="array" ref="Q33">100*SIGN(P33)*ABS(P33)/MAX(ABS($P$4:$P$33))</f>
-        <v>0</v>
+        <v>39.819710267526695</v>
+      </c>
+      <c r="R33" s="24">
+        <f>E33-($I$7*D33)</f>
+        <v>59.041646251837335</v>
+      </c>
+      <c r="S33" s="25" cm="1">
+        <f t="array" ref="S33">100*SIGN(R33)*ABS(R33)/MAX(ABS($R$4:$R$33))</f>
+        <v>25.660988074957412</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B1:S1"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
